--- a/sofaplayer/Ligue_1/Nantes_stats.xlsx
+++ b/sofaplayer/Ligue_1/Nantes_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>45512</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6105263157895</v>
+        <v>6.6</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>2.315</v>
       </c>
       <c r="L3" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M3" t="n">
         <v>13</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.87116158</v>
+        <v>0.95469658</v>
       </c>
       <c r="AB3" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,28 +1469,28 @@
         <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF3" t="n">
-        <v>64.5</v>
+        <v>65.217391304348</v>
       </c>
       <c r="AG3" t="n">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AH3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AK3" t="n">
         <v>10</v>
       </c>
       <c r="AL3" t="n">
-        <v>55.555555555556</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>9</v>
@@ -1538,13 +1538,13 @@
         <v>46</v>
       </c>
       <c r="BB3" t="n">
-        <v>41.818181818182</v>
+        <v>41.071428571429</v>
       </c>
       <c r="BC3" t="n">
         <v>28</v>
       </c>
       <c r="BD3" t="n">
-        <v>43.076923076923</v>
+        <v>41.791044776119</v>
       </c>
       <c r="BE3" t="n">
         <v>18</v>
@@ -1553,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="BG3" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BH3" t="n">
         <v>18</v>
@@ -1562,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="BJ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>125.6</v>
+        <v>132</v>
       </c>
       <c r="BR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS3" t="n">
         <v>3</v>
       </c>
       <c r="BT3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>1</v>
       </c>
       <c r="CB3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CD3" t="n">
         <v>14</v>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CV3" t="n">
         <v>27</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DA3" t="n">
         <v>5</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="DG3" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>999070</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9809523809524</v>
+        <v>6.9545454545455</v>
       </c>
       <c r="F5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>1694</v>
+        <v>1784</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -2121,22 +2121,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4068</v>
+        <v>4.5606</v>
       </c>
       <c r="L5" t="n">
-        <v>423.5</v>
+        <v>446</v>
       </c>
       <c r="M5" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" t="n">
         <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>7.1428571428571</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,37 +2169,37 @@
         <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.88874516</v>
+        <v>2.07263016</v>
       </c>
       <c r="AB5" t="n">
-        <v>643</v>
+        <v>680</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AF5" t="n">
-        <v>71.481481481481</v>
+        <v>71.180555555556</v>
       </c>
       <c r="AG5" t="n">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AH5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AJ5" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
@@ -2220,58 +2220,58 @@
         <v>12</v>
       </c>
       <c r="AR5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>43.617021276596</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>115</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>45.275590551181</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>95</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>45.893719806763</v>
+      </c>
+      <c r="BE5" t="n">
         <v>20</v>
       </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>39</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>44.318181818182</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>111</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>45.867768595041</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>92</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>46.464646464646</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>19</v>
-      </c>
       <c r="BF5" t="n">
-        <v>43.181818181818</v>
+        <v>42.553191489362</v>
       </c>
       <c r="BG5" t="n">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="BH5" t="n">
         <v>25</v>
       </c>
       <c r="BI5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BJ5" t="n">
         <v>3</v>
@@ -2289,28 +2289,28 @@
         <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>146.6</v>
+        <v>153</v>
       </c>
       <c r="BR5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS5" t="n">
         <v>6</v>
       </c>
       <c r="BT5" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BW5" t="n">
         <v>1</v>
@@ -2322,19 +2322,19 @@
         <v>5</v>
       </c>
       <c r="BZ5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CA5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CB5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CC5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CD5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CK5" t="n">
         <v>6</v>
@@ -2376,19 +2376,19 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS5" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="CT5" t="n">
         <v>25</v>
       </c>
       <c r="CU5" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="CV5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CW5" t="n">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="CZ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DA5" t="n">
         <v>12</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="DG5" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>890329</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2832,18 +2832,20 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.1522</v>
+      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2879,259 +2881,259 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0118482</v>
+        <v>0.016298</v>
       </c>
       <c r="AB7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>7</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="n">
         <v>3</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB7" t="n">
         <v>100</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
         <v>3</v>
       </c>
-      <c r="AH7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>2</v>
-      </c>
       <c r="DG7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3169,16 +3171,16 @@
         <v>829093</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05562259</v>
+        <v>0.07981769</v>
       </c>
       <c r="AB8" t="n">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3247,28 +3249,28 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="AF8" t="n">
-        <v>77.5</v>
+        <v>80.141843971631</v>
       </c>
       <c r="AG8" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="AH8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI8" t="n">
         <v>53</v>
       </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
-        <v>46.153846153846</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3286,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -3310,19 +3312,19 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>80</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>58.823529411765</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BC8" t="n">
         <v>10</v>
       </c>
       <c r="BD8" t="n">
-        <v>45.454545454545</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BE8" t="n">
         <v>10</v>
@@ -3331,10 +3333,10 @@
         <v>83.333333333333</v>
       </c>
       <c r="BG8" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BH8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI8" t="n">
         <v>3</v>
@@ -3343,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3361,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>19.6</v>
+        <v>26</v>
       </c>
       <c r="BR8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3394,13 +3396,13 @@
         <v>3</v>
       </c>
       <c r="CB8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3445,28 +3447,28 @@
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU8" t="n">
+        <v>18</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
         <v>14</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>13</v>
       </c>
       <c r="DA8" t="n">
         <v>3</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="DG8" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="DH8" t="n">
         <v>2</v>
@@ -3525,16 +3527,16 @@
         <v>72998</v>
       </c>
       <c r="E9" t="n">
-        <v>7.34</v>
+        <v>7.2166666666667</v>
       </c>
       <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
         <v>5</v>
       </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
       <c r="H9" t="n">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3546,7 +3548,7 @@
         <v>2.0117</v>
       </c>
       <c r="L9" t="n">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -3591,46 +3593,46 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.869509</v>
+        <v>0.9042241</v>
       </c>
       <c r="AB9" t="n">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="AF9" t="n">
-        <v>84.046692607004</v>
+        <v>84.640522875817</v>
       </c>
       <c r="AG9" t="n">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="AH9" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="AI9" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
-        <v>61.538461538462</v>
+        <v>52.631578947368</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>48.148148148148</v>
+        <v>44.827586206897</v>
       </c>
       <c r="AO9" t="n">
         <v>4</v>
@@ -3639,16 +3641,16 @@
         <v>11</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AS9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>1</v>
@@ -3666,34 +3668,34 @@
         <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>80</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB9" t="n">
-        <v>58.695652173913</v>
+        <v>55.769230769231</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
-        <v>58.333333333333</v>
+        <v>56.09756097561</v>
       </c>
       <c r="BE9" t="n">
         <v>6</v>
       </c>
       <c r="BF9" t="n">
-        <v>60</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BG9" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="BH9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ9" t="n">
         <v>1</v>
@@ -3711,22 +3713,22 @@
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>36.7</v>
+        <v>43.3</v>
       </c>
       <c r="BR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3753,10 +3755,10 @@
         <v>6</v>
       </c>
       <c r="CC9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="CD9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3774,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="CK9" t="n">
         <v>4</v>
@@ -3798,31 +3800,31 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>29</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>23</v>
+      </c>
+      <c r="CV9" t="n">
         <v>5</v>
       </c>
-      <c r="CT9" t="n">
-        <v>27</v>
-      </c>
-      <c r="CU9" t="n">
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>19</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>13</v>
       </c>
       <c r="DA9" t="n">
         <v>6</v>
@@ -3840,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="DG9" t="n">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3881,16 +3883,16 @@
         <v>822110</v>
       </c>
       <c r="E10" t="n">
-        <v>6.6</v>
+        <v>6.5111111111111</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3899,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4231</v>
+        <v>0.4809</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -3944,37 +3946,37 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.29780985</v>
+        <v>0.43558485</v>
       </c>
       <c r="AB10" t="n">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="AF10" t="n">
-        <v>84</v>
+        <v>84.09090909090899</v>
       </c>
       <c r="AG10" t="n">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="AH10" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AI10" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
         <v>5</v>
@@ -3983,37 +3985,37 @@
         <v>41.666666666667</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR10" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AS10" t="n">
         <v>3</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
         <v>0</v>
@@ -4022,34 +4024,34 @@
         <v>2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28.571428571429</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BA10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB10" t="n">
-        <v>46.875</v>
+        <v>41.891891891892</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
-        <v>47.916666666667</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BE10" t="n">
         <v>7</v>
       </c>
       <c r="BF10" t="n">
-        <v>43.75</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BG10" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="BH10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BJ10" t="n">
         <v>2</v>
@@ -4067,106 +4069,106 @@
         <v>1</v>
       </c>
       <c r="BO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>35</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="CD10" t="n">
         <v>6</v>
       </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="BR10" t="n">
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
         <v>8</v>
       </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>28</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC10" t="n">
+      <c r="CK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS10" t="n">
         <v>9</v>
       </c>
-      <c r="CD10" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>7</v>
-      </c>
       <c r="CT10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CU10" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="CV10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CW10" t="n">
         <v>0</v>
@@ -4196,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="DG10" t="n">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4237,16 +4239,16 @@
         <v>963299</v>
       </c>
       <c r="E11" t="n">
-        <v>6.9333333333333</v>
+        <v>6.9375</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4255,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3387</v>
+        <v>0.367</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N11" t="n">
         <v>2</v>
@@ -4303,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.03301146</v>
+        <v>1.07348256</v>
       </c>
       <c r="AB11" t="n">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="AC11" t="n">
         <v>2</v>
@@ -4315,55 +4317,55 @@
         <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="AF11" t="n">
-        <v>84.06708595387801</v>
+        <v>84.040404040404</v>
       </c>
       <c r="AG11" t="n">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="AH11" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AI11" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AJ11" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>59.574468085106</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
-        <v>28.125</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AS11" t="n">
         <v>23</v>
       </c>
       <c r="AT11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -4381,31 +4383,31 @@
         <v>41.176470588235</v>
       </c>
       <c r="BA11" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="BB11" t="n">
-        <v>56.687898089172</v>
+        <v>57.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BD11" t="n">
-        <v>58.571428571429</v>
+        <v>59.154929577465</v>
       </c>
       <c r="BE11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF11" t="n">
-        <v>41.176470588235</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG11" t="n">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="BH11" t="n">
         <v>14</v>
       </c>
       <c r="BI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4429,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="BR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4459,13 +4461,13 @@
         <v>3</v>
       </c>
       <c r="CA11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB11" t="n">
         <v>11</v>
       </c>
       <c r="CC11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CD11" t="n">
         <v>19</v>
@@ -4516,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="CT11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="CU11" t="n">
         <v>68</v>
@@ -4534,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="DA11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DB11" t="n">
-        <v>66</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4552,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="DG11" t="n">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4596,13 +4598,13 @@
         <v>6.5</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4659,110 +4661,110 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1009298</v>
+        <v>0.1383869</v>
       </c>
       <c r="AB12" t="n">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AC12" t="n">
         <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="n">
-        <v>88.135593220339</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG12" t="n">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR12" t="n">
         <v>14</v>
       </c>
-      <c r="AI12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="AS12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>46.666666666667</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI12" t="n">
         <v>3</v>
       </c>
-      <c r="AR12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
@@ -4779,22 +4781,22 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS12" t="n">
         <v>1</v>
       </c>
       <c r="BT12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4818,10 +4820,10 @@
         <v>1</v>
       </c>
       <c r="CB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD12" t="n">
         <v>3</v>
@@ -4842,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4866,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS12" t="n">
         <v>1</v>
@@ -4875,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="CU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV12" t="n">
         <v>2</v>
@@ -4893,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="DG12" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4952,13 +4954,13 @@
         <v>6.6</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06386355000000001</v>
+        <v>0.12509575</v>
       </c>
       <c r="AB13" t="n">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5027,28 +5029,28 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="n">
-        <v>89.403973509934</v>
+        <v>87.640449438202</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
-        <v>72.727272727273</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -5057,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP13" t="n">
         <v>7</v>
@@ -5066,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -5078,7 +5080,7 @@
         <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="n">
         <v>1</v>
@@ -5087,101 +5089,101 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI13" t="n">
         <v>3</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>16</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>53.333333333333</v>
-      </c>
-      <c r="BC13" t="n">
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>22</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC13" t="n">
         <v>12</v>
       </c>
-      <c r="BD13" t="n">
-        <v>52.173913043478</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>23</v>
-      </c>
-      <c r="BH13" t="n">
+      <c r="CD13" t="n">
         <v>7</v>
       </c>
-      <c r="BI13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>16</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>6</v>
-      </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK13" t="n">
         <v>2</v>
@@ -5225,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CV13" t="n">
         <v>3</v>
@@ -5246,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DA13" t="n">
         <v>4</v>
@@ -5264,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="DG13" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ13" t="n">
         <v>2147588</v>
@@ -5661,16 +5663,16 @@
         <v>1405912</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5352941176471</v>
+        <v>6.5944444444444</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="n">
-        <v>819</v>
+        <v>909</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5679,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5127</v>
+        <v>0.7507</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
         <v>2</v>
@@ -5727,103 +5729,103 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.96200957</v>
+        <v>1.17621357</v>
       </c>
       <c r="AB15" t="n">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="AF15" t="n">
-        <v>76.953125</v>
+        <v>76.81660899654</v>
       </c>
       <c r="AG15" t="n">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="AH15" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="n">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="AJ15" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>36.111111111111</v>
+        <v>36.842105263158</v>
       </c>
       <c r="AM15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AN15" t="n">
-        <v>20.408163265306</v>
+        <v>24.137931034483</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>12</v>
       </c>
       <c r="AU15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX15" t="n">
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>54.166666666667</v>
+        <v>60.714285714286</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="BB15" t="n">
-        <v>50</v>
+        <v>54.310344827586</v>
       </c>
       <c r="BC15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BD15" t="n">
-        <v>50.561797752809</v>
+        <v>53.921568627451</v>
       </c>
       <c r="BE15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BF15" t="n">
-        <v>45.454545454545</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG15" t="n">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="BH15" t="n">
         <v>17</v>
@@ -5847,28 +5849,28 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>111.1</v>
+        <v>118.7</v>
       </c>
       <c r="BR15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5880,19 +5882,19 @@
         <v>2</v>
       </c>
       <c r="BZ15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CA15" t="n">
         <v>10</v>
       </c>
       <c r="CB15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CC15" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="CD15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CK15" t="n">
         <v>1</v>
@@ -5934,16 +5936,16 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CS15" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CT15" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="CU15" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="CV15" t="n">
         <v>6</v>
@@ -5958,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DA15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="DB15" t="n">
-        <v>58.823529411765</v>
+        <v>56.521739130435</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="DG15" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6373,16 +6375,16 @@
         <v>1107439</v>
       </c>
       <c r="E17" t="n">
-        <v>7.2</v>
+        <v>6.9666666666667</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6439,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.02069926</v>
+        <v>0.022396</v>
       </c>
       <c r="AB17" t="n">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6451,28 +6453,28 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AF17" t="n">
-        <v>83.760683760684</v>
+        <v>83.006535947712</v>
       </c>
       <c r="AG17" t="n">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="AH17" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6490,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS17" t="n">
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6517,31 +6519,31 @@
         <v>100</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
-        <v>70</v>
+        <v>73.913043478261</v>
       </c>
       <c r="BC17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD17" t="n">
-        <v>53.846153846154</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BE17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BF17" t="n">
         <v>100</v>
       </c>
       <c r="BG17" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BH17" t="n">
         <v>3</v>
       </c>
       <c r="BI17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
@@ -6559,22 +6561,22 @@
         <v>0</v>
       </c>
       <c r="BO17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="BR17" t="n">
         <v>3</v>
       </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>2</v>
-      </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="CD17" t="n">
         <v>5</v>
@@ -6622,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CK17" t="n">
         <v>1</v>
@@ -6670,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="DA17" t="n">
         <v>4</v>
@@ -6688,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="DG17" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="DH17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="DI17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ17" t="n">
         <v>2619704</v>
@@ -6729,16 +6731,16 @@
         <v>804764</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9823529411765</v>
+        <v>6.9777777777778</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>1516</v>
+        <v>1606</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
@@ -6750,7 +6752,7 @@
         <v>0.4479</v>
       </c>
       <c r="L18" t="n">
-        <v>1516</v>
+        <v>1606</v>
       </c>
       <c r="M18" t="n">
         <v>7</v>
@@ -6795,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.08882754</v>
+        <v>1.11253534</v>
       </c>
       <c r="AB18" t="n">
-        <v>1300</v>
+        <v>1371</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -6807,28 +6809,28 @@
         <v>8</v>
       </c>
       <c r="AE18" t="n">
-        <v>905</v>
+        <v>955</v>
       </c>
       <c r="AF18" t="n">
-        <v>86.19047619047601</v>
+        <v>86.347197106691</v>
       </c>
       <c r="AG18" t="n">
-        <v>1050</v>
+        <v>1106</v>
       </c>
       <c r="AH18" t="n">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="AI18" t="n">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="AJ18" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AK18" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AL18" t="n">
-        <v>54.787234042553</v>
+        <v>55.729166666667</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6837,22 +6839,22 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6873,37 +6875,37 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA18" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="BB18" t="n">
-        <v>60.714285714286</v>
+        <v>60.655737704918</v>
       </c>
       <c r="BC18" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BD18" t="n">
-        <v>55.555555555556</v>
+        <v>56.338028169014</v>
       </c>
       <c r="BE18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF18" t="n">
-        <v>67.34693877551</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG18" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="BH18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BJ18" t="n">
         <v>1</v>
       </c>
       <c r="BK18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6915,22 +6917,22 @@
         <v>2</v>
       </c>
       <c r="BO18" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>118.7</v>
+        <v>125.6</v>
       </c>
       <c r="BR18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS18" t="n">
         <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6957,10 +6959,10 @@
         <v>2</v>
       </c>
       <c r="CC18" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CD18" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CE18" t="n">
         <v>1</v>
@@ -6978,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CK18" t="n">
         <v>5</v>
@@ -7011,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CV18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="DA18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="DB18" t="n">
-        <v>73.333333333333</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="DG18" t="n">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="DH18" t="n">
         <v>75</v>
@@ -7085,16 +7087,16 @@
         <v>1170197</v>
       </c>
       <c r="E19" t="n">
-        <v>6.8</v>
+        <v>6.05</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7103,19 +7105,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0433</v>
+        <v>0.2769</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -7151,34 +7153,34 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.00570768</v>
+        <v>0.009213860000000001</v>
       </c>
       <c r="AB19" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>85.416666666667</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH19" t="n">
         <v>25</v>
       </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>95.652173913043</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
@@ -7202,13 +7204,13 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -7217,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -7229,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
         <v>50</v>
@@ -7241,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="BE19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BF19" t="n">
-        <v>100</v>
+        <v>83.333333333333</v>
       </c>
       <c r="BG19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BH19" t="n">
         <v>2</v>
@@ -7271,28 +7273,28 @@
         <v>0</v>
       </c>
       <c r="BO19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>6.8</v>
+        <v>12.1</v>
       </c>
       <c r="BR19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7304,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
@@ -7334,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -7367,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CV19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA19" t="n">
         <v>0</v>
@@ -7400,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="DG19" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -8507,16 +8509,16 @@
         <v>886286</v>
       </c>
       <c r="E23" t="n">
-        <v>6.4</v>
+        <v>6.4411764705882</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="n">
         <v>14</v>
       </c>
       <c r="H23" t="n">
-        <v>1268</v>
+        <v>1313</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,40 +8575,40 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.29963207</v>
+        <v>0.42360507</v>
       </c>
       <c r="AB23" t="n">
-        <v>760</v>
+        <v>806</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="AF23" t="n">
-        <v>74.789915966387</v>
+        <v>76.356589147287</v>
       </c>
       <c r="AG23" t="n">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="AH23" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AI23" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="AJ23" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK23" t="n">
         <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>26.666666666667</v>
+        <v>26.315789473684</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -8615,22 +8617,22 @@
         <v>11.764705882353</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR23" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AS23" t="n">
         <v>14</v>
       </c>
       <c r="AT23" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -8651,25 +8653,25 @@
         <v>46.666666666667</v>
       </c>
       <c r="BA23" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BB23" t="n">
-        <v>51.041666666667</v>
+        <v>50.961538461538</v>
       </c>
       <c r="BC23" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BD23" t="n">
-        <v>50</v>
+        <v>52.054794520548</v>
       </c>
       <c r="BE23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BF23" t="n">
-        <v>53.846153846154</v>
+        <v>48.387096774194</v>
       </c>
       <c r="BG23" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BH23" t="n">
         <v>10</v>
@@ -8699,16 +8701,16 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>102.4</v>
+        <v>109.5</v>
       </c>
       <c r="BR23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8735,10 +8737,10 @@
         <v>3</v>
       </c>
       <c r="CC23" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="CD23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8780,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CS23" t="n">
         <v>15</v>
@@ -8789,28 +8791,28 @@
         <v>17</v>
       </c>
       <c r="CU23" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CV23" t="n">
+        <v>16</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>76</v>
+      </c>
+      <c r="DA23" t="n">
         <v>12</v>
       </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>75</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>10</v>
-      </c>
       <c r="DB23" t="n">
-        <v>55.555555555556</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,10 +8824,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="DG23" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="DH23" t="n">
         <v>1</v>
@@ -8863,40 +8865,40 @@
         <v>802034</v>
       </c>
       <c r="E24" t="n">
-        <v>6.7</v>
+        <v>6.75</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>1.0069</v>
+        <v>1.2879</v>
       </c>
       <c r="L24" t="n">
-        <v>179.5</v>
+        <v>149.66666666667</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8908,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -8917,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
         <v>2</v>
@@ -8929,61 +8931,61 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.6472736100000001</v>
+        <v>0.65619337</v>
       </c>
       <c r="AB24" t="n">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="AC24" t="n">
         <v>1</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AF24" t="n">
-        <v>73.831775700935</v>
+        <v>74.10071942446</v>
       </c>
       <c r="AG24" t="n">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AI24" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>33.333333333333</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AO24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>17</v>
@@ -9007,25 +9009,25 @@
         <v>30.769230769231</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>52.083333333333</v>
+        <v>53.703703703704</v>
       </c>
       <c r="BC24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
-        <v>52.380952380952</v>
+        <v>55.31914893617</v>
       </c>
       <c r="BE24" t="n">
         <v>3</v>
       </c>
       <c r="BF24" t="n">
-        <v>50</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG24" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="BH24" t="n">
         <v>8</v>
@@ -9049,22 +9051,22 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>60.3</v>
+        <v>67.5</v>
       </c>
       <c r="BR24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BT24" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9082,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CA24" t="n">
         <v>2</v>
@@ -9091,7 +9093,7 @@
         <v>3</v>
       </c>
       <c r="CC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CD24" t="n">
         <v>3</v>
@@ -9112,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CK24" t="n">
         <v>0</v>
@@ -9136,19 +9138,19 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS24" t="n">
         <v>13</v>
       </c>
       <c r="CT24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="CU24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CV24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9160,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DA24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="DB24" t="n">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9178,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="DG24" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -9573,16 +9575,16 @@
         <v>48535</v>
       </c>
       <c r="E26" t="n">
-        <v>7.06</v>
+        <v>7.0809523809524</v>
       </c>
       <c r="F26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
-        <v>1799</v>
+        <v>1889</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -9639,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02209469</v>
+        <v>0.02246649</v>
       </c>
       <c r="AB26" t="n">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -9651,28 +9653,28 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="AF26" t="n">
-        <v>76.910828025478</v>
+        <v>77.18223583461</v>
       </c>
       <c r="AG26" t="n">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="AH26" t="n">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="AI26" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ26" t="n">
         <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL26" t="n">
-        <v>43.307086614173</v>
+        <v>43.295019157088</v>
       </c>
       <c r="AM26" t="n">
         <v>0</v>
@@ -9690,13 +9692,13 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>1</v>
@@ -9717,16 +9719,16 @@
         <v>100</v>
       </c>
       <c r="BA26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD26" t="n">
         <v>88.888888888889</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>85.71428571428601</v>
       </c>
       <c r="BE26" t="n">
         <v>10</v>
@@ -9735,13 +9737,13 @@
         <v>90.90909090909101</v>
       </c>
       <c r="BG26" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="BH26" t="n">
         <v>0</v>
       </c>
       <c r="BI26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BJ26" t="n">
         <v>0</v>
@@ -9753,28 +9755,28 @@
         <v>0</v>
       </c>
       <c r="BM26" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BN26" t="n">
         <v>3</v>
       </c>
       <c r="BO26" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BP26" t="n">
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
-        <v>141.2</v>
+        <v>148.7</v>
       </c>
       <c r="BR26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
       <c r="BT26" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BU26" t="n">
         <v>0</v>
@@ -9801,10 +9803,10 @@
         <v>0</v>
       </c>
       <c r="CC26" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="CD26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CE26" t="n">
         <v>0</v>
@@ -9816,13 +9818,13 @@
         <v>3</v>
       </c>
       <c r="CH26" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CI26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CJ26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CK26" t="n">
         <v>6</v>
@@ -9831,13 +9833,13 @@
         <v>7</v>
       </c>
       <c r="CM26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CO26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CP26" t="n">
         <v>1</v>
@@ -9870,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="DA26" t="n">
         <v>1</v>
@@ -9885,16 +9887,16 @@
         <v>1</v>
       </c>
       <c r="DE26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DF26" t="n">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="DG26" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="DH26" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="DI26" t="n">
         <v>0</v>
@@ -9908,7 +9910,7 @@
         </is>
       </c>
       <c r="DL26" t="n">
-        <v>-1.8378</v>
+        <v>-1.4295</v>
       </c>
     </row>
     <row r="27">
